--- a/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
+++ b/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -92,43 +92,43 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Usuario do Sistema inicia a tela de login atraves da opcao de login no canto superior direito</t>
+    <t>Usuario do Sistema inicia a tela de login atraves da opcao de Login no canto superior direito</t>
   </si>
   <si>
     <t>SYSTEM apresenta um formulario com campos de nome de usuario e senha e um botao entrar</t>
   </si>
   <si>
+    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
+  </si>
+  <si>
+    <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissoes de acesso e escrita) esta fora do ar</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Usuario logado com sucesso</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
     <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
   </si>
   <si>
-    <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissoes de acesso e escrita) esta fora do ar</t>
-  </si>
-  <si>
-    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Usuario logado com sucesso</t>
-  </si>
-  <si>
-    <t>TC2</t>
+    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
   </si>
   <si>
     <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
-  </si>
-  <si>
-    <t>TC4</t>
   </si>
   <si>
     <t>TC5</t>
@@ -531,13 +531,13 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>2</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C13" t="s" s="8">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="4">
         <v>14</v>
@@ -673,7 +673,7 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>2</v>
@@ -693,13 +693,13 @@
         <v>3.0</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D22" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>2</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C23" t="s" s="8">
         <v>2</v>
@@ -835,13 +835,13 @@
         <v>2.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -855,13 +855,13 @@
         <v>3.0</v>
       </c>
       <c r="B32" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E32" t="s" s="6">
         <v>2</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C33" t="s" s="8">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="4">
         <v>14</v>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1017,13 +1017,13 @@
         <v>3.0</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D42" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>2</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C43" t="s" s="8">
         <v>2</v>
@@ -1159,13 +1159,13 @@
         <v>2.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C53" t="s" s="8">
         <v>2</v>
@@ -1321,13 +1321,13 @@
         <v>2.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1341,13 +1341,13 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>2</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B63" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C63" t="s" s="8">
         <v>2</v>

--- a/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
+++ b/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
@@ -98,37 +98,37 @@
     <t>SYSTEM apresenta um formulario com campos de nome de usuario e senha e um botao entrar</t>
   </si>
   <si>
+    <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
+  </si>
+  <si>
+    <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
+  </si>
+  <si>
     <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Usuario logado com sucesso</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissoes de acesso e escrita) esta fora do ar</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Usuario logado com sucesso</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
     <t>TC4</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
   </si>
   <si>
     <t>TC5</t>
@@ -531,13 +531,13 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D12" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>2</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s" s="8">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="4">
         <v>14</v>
@@ -673,7 +673,7 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>2</v>
@@ -693,13 +693,13 @@
         <v>3.0</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D22" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>2</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s" s="8">
         <v>2</v>
@@ -835,13 +835,13 @@
         <v>2.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s" s="6">
         <v>2</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s" s="8">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s" s="4">
         <v>14</v>
@@ -997,13 +997,13 @@
         <v>2.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1017,13 +1017,13 @@
         <v>3.0</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D42" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>2</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s" s="8">
         <v>2</v>
@@ -1159,13 +1159,13 @@
         <v>2.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1179,13 +1179,13 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s" s="8">
         <v>2</v>
@@ -1321,13 +1321,13 @@
         <v>2.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1341,13 +1341,13 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D62" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>2</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s" s="8">
         <v>2</v>

--- a/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
+++ b/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
@@ -98,37 +98,37 @@
     <t>SYSTEM apresenta um formulario com campos de nome de usuario e senha e um botao entrar</t>
   </si>
   <si>
+    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
+  </si>
+  <si>
+    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Usuario logado com sucesso</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
     <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
   </si>
   <si>
     <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
   </si>
   <si>
-    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Usuario logado com sucesso</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
-  </si>
-  <si>
     <t>TC3</t>
   </si>
   <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissoes de acesso e escrita) esta fora do ar</t>
-  </si>
-  <si>
-    <t>TC4</t>
   </si>
   <si>
     <t>TC5</t>
@@ -531,13 +531,13 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>2</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C13" t="s" s="8">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="4">
         <v>14</v>
@@ -673,7 +673,7 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>2</v>
@@ -693,13 +693,13 @@
         <v>3.0</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D22" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>2</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C23" t="s" s="8">
         <v>2</v>
@@ -835,13 +835,13 @@
         <v>2.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -855,13 +855,13 @@
         <v>3.0</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D32" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s" s="6">
         <v>2</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C33" t="s" s="8">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="4">
         <v>14</v>
@@ -997,13 +997,13 @@
         <v>2.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>2</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C43" t="s" s="8">
         <v>2</v>
@@ -1179,13 +1179,13 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C53" t="s" s="8">
         <v>2</v>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1341,13 +1341,13 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>2</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B63" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C63" t="s" s="8">
         <v>2</v>

--- a/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
+++ b/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
@@ -98,28 +98,28 @@
     <t>SYSTEM apresenta um formulario com campos de nome de usuario e senha e um botao entrar</t>
   </si>
   <si>
+    <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
+  </si>
+  <si>
+    <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Usuario logado com sucesso</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
     <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
   </si>
   <si>
     <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Usuario logado com sucesso</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
   </si>
   <si>
     <t>TC3</t>
@@ -835,13 +835,13 @@
         <v>2.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -855,7 +855,7 @@
         <v>3.0</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s" s="6">
         <v>2</v>
@@ -1017,7 +1017,7 @@
         <v>3.0</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>2</v>
@@ -1159,13 +1159,13 @@
         <v>2.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1179,7 +1179,7 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>2</v>

--- a/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
+++ b/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
@@ -92,7 +92,7 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Usuario do Sistema inicia a tela de login atraves da opcao de Login no canto superior direito</t>
+    <t>Usuario do Sistema abre a tela de login atraves da opcao de Login no canto superior direito</t>
   </si>
   <si>
     <t>SYSTEM apresenta um formulario com campos de nome de usuario e senha e um botao entrar</t>
@@ -101,34 +101,34 @@
     <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
   </si>
   <si>
+    <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissoes de acesso e escrita) esta fora do ar</t>
+  </si>
+  <si>
+    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Usuario logado com sucesso</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
     <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Usuario logado com sucesso</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
+    <t>TC3</t>
   </si>
   <si>
     <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
     <t>TC4</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissoes de acesso e escrita) esta fora do ar</t>
   </si>
   <si>
     <t>TC5</t>
@@ -531,13 +531,13 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D12" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>2</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s" s="8">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="4">
         <v>14</v>
@@ -673,7 +673,7 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>2</v>
@@ -693,13 +693,13 @@
         <v>3.0</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D22" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>2</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s" s="8">
         <v>2</v>
@@ -835,13 +835,13 @@
         <v>2.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s" s="6">
         <v>2</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s" s="8">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s" s="4">
         <v>14</v>
@@ -997,13 +997,13 @@
         <v>2.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1017,13 +1017,13 @@
         <v>3.0</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D42" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>2</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s" s="8">
         <v>2</v>
@@ -1159,7 +1159,7 @@
         <v>2.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
@@ -1179,13 +1179,13 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s" s="8">
         <v>2</v>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1341,13 +1341,13 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D62" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>2</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s" s="8">
         <v>2</v>

--- a/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
+++ b/output/xlsx/RF001 - Autenticar Usuario--GTP-.xlsx
@@ -101,34 +101,34 @@
     <t>Usuario do Sistema preenche os campos e clica no botao entrar</t>
   </si>
   <si>
+    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>Usuario logado com sucesso</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>SYSTEM alerta que o TJSeg (sistema que fornece as permissoes de acesso e escrita) esta fora do ar</t>
   </si>
   <si>
-    <t>Usuario do Sistema seleciona um nome de usuario sugerido, digita a senha e clica no botao entrar</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>Usuario logado com sucesso</t>
-  </si>
-  <si>
-    <t>TC2</t>
+    <t>TC4</t>
   </si>
   <si>
     <t>SYSTEM alerta que o CAS (sistema de autorizacao login-senha) esta fora do ar</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>SYSTEM alerta que o nome de usuario e/ou senha estao incorretos</t>
-  </si>
-  <si>
-    <t>TC4</t>
   </si>
   <si>
     <t>TC5</t>
@@ -531,13 +531,13 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>2</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C13" t="s" s="8">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="4">
         <v>14</v>
@@ -673,13 +673,13 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D21" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s" s="6">
         <v>2</v>
@@ -693,13 +693,13 @@
         <v>3.0</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D22" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>2</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C23" t="s" s="8">
         <v>2</v>
@@ -735,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s" s="4">
         <v>14</v>
@@ -835,13 +835,13 @@
         <v>2.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -855,13 +855,13 @@
         <v>3.0</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D32" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s" s="6">
         <v>2</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C33" t="s" s="8">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="4">
         <v>14</v>
@@ -997,13 +997,13 @@
         <v>2.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1017,13 +1017,13 @@
         <v>3.0</v>
       </c>
       <c r="B42" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>2</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C43" t="s" s="8">
         <v>2</v>
@@ -1159,13 +1159,13 @@
         <v>2.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C53" t="s" s="8">
         <v>2</v>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1341,13 +1341,13 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>30</v>
-      </c>
-      <c r="C62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>2</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="B63" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="C63" t="s" s="8">
         <v>2</v>
